--- a/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
+++ b/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/bldgs/sobcaicbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/sobcaicbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B69E8-4C2C-0C4E-A352-15010F5D86BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E0443E-BD00-0447-89F9-ABC3C95D900A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="27180" windowHeight="14840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
